--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2730345.029478647</v>
+        <v>2727799.843405362</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -662,13 +662,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>346.6999128968763</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>293.9557741331907</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -716,10 +716,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>73.37668880174277</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>23.32897990642503</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +902,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>109.4422623037129</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>327.1387951101884</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586869</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>205.3743261851591</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>184.5531420538941</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>171.4701275066043</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>90.47425134795107</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>132.4168693425908</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620684</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576146</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1531,10 +1531,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E13" t="n">
-        <v>99.97427419833861</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,22 +1768,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>104.8913819999787</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>24.8326660635311</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206838</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>79.0585636675447</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428166</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>1.799772605716168</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>41.01175877060098</v>
       </c>
     </row>
     <row r="29">
@@ -2950,13 +2950,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>120.7871326503968</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3193,16 +3193,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>19.91555826189057</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>32.84316668127778</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3421,13 +3421,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>41.01175877060098</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3436,7 +3436,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613203</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>193.7663624135853</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>123.9815576456784</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1993.54646147304</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>1993.54646147304</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D2" t="n">
-        <v>1635.28076286629</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1249.492510268045</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
         <v>952.5674858910851</v>
@@ -4364,16 +4364,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.54646147304</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.54646147304</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1993.54646147304</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1993.54646147304</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4422,10 +4422,10 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>654.0111167299266</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>485.0749338020197</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>485.0749338020197</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>337.1618402196266</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>654.0111167299266</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>654.0111167299266</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>654.0111167299266</v>
+        <v>490.2759348564911</v>
       </c>
       <c r="U4" t="n">
-        <v>654.0111167299266</v>
+        <v>490.2759348564911</v>
       </c>
       <c r="V4" t="n">
-        <v>654.0111167299266</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="W4" t="n">
-        <v>654.0111167299266</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X4" t="n">
-        <v>654.0111167299266</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y4" t="n">
-        <v>654.0111167299266</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>554.3221432721089</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="C5" t="n">
-        <v>185.3596263316971</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D5" t="n">
-        <v>185.3596263316971</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>185.3596263316971</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>178.4141255824937</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>164.4907215210846</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>164.4907215210846</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W5" t="n">
-        <v>1704.527073573122</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="X5" t="n">
-        <v>1331.061315312042</v>
+        <v>1387.069036214947</v>
       </c>
       <c r="Y5" t="n">
-        <v>940.9219833362306</v>
+        <v>1387.069036214947</v>
       </c>
     </row>
     <row r="6">
@@ -4650,19 +4650,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>261.391796148808</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>261.391796148808</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>261.391796148808</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>261.391796148808</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1764.194881475117</v>
+        <v>1710.685703078436</v>
       </c>
       <c r="C8" t="n">
-        <v>1395.232364534705</v>
+        <v>1341.723186138024</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.966665927955</v>
+        <v>983.457487531274</v>
       </c>
       <c r="E8" t="n">
-        <v>651.1784133297106</v>
+        <v>597.6692349330297</v>
       </c>
       <c r="F8" t="n">
-        <v>240.192508540103</v>
+        <v>590.7237341838262</v>
       </c>
       <c r="G8" t="n">
-        <v>227.1451308169345</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4817,10 +4817,10 @@
         <v>1857.509626955287</v>
       </c>
       <c r="O8" t="n">
-        <v>2404.670831722364</v>
+        <v>2027.678652272246</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996627</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4835,19 +4835,19 @@
         <v>2540.93405351505</v>
       </c>
       <c r="U8" t="n">
-        <v>2540.93405351505</v>
+        <v>2287.242350260201</v>
       </c>
       <c r="V8" t="n">
-        <v>2540.93405351505</v>
+        <v>2287.242350260201</v>
       </c>
       <c r="W8" t="n">
-        <v>2540.93405351505</v>
+        <v>2287.242350260201</v>
       </c>
       <c r="X8" t="n">
-        <v>2540.93405351505</v>
+        <v>2287.242350260201</v>
       </c>
       <c r="Y8" t="n">
-        <v>2150.794721539239</v>
+        <v>1897.10301828439</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>142.9741724191618</v>
+        <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
-        <v>647.3357122852804</v>
+        <v>639.260235998764</v>
       </c>
       <c r="M9" t="n">
-        <v>1287.881061752385</v>
+        <v>818.7575723533688</v>
       </c>
       <c r="N9" t="n">
-        <v>1955.425461779395</v>
+        <v>1486.301972380379</v>
       </c>
       <c r="O9" t="n">
-        <v>2504.861470532118</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>651.4366193059393</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>482.5004363780324</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>482.5004363780324</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>334.5873427956393</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>187.6973952977289</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>1053.877663279709</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="T10" t="n">
-        <v>1053.877663279709</v>
+        <v>620.8081818444795</v>
       </c>
       <c r="U10" t="n">
-        <v>1053.877663279709</v>
+        <v>620.8081818444795</v>
       </c>
       <c r="V10" t="n">
-        <v>1053.877663279709</v>
+        <v>366.1236936385926</v>
       </c>
       <c r="W10" t="n">
-        <v>1053.877663279709</v>
+        <v>366.1236936385926</v>
       </c>
       <c r="X10" t="n">
-        <v>1053.877663279709</v>
+        <v>366.1236936385926</v>
       </c>
       <c r="Y10" t="n">
-        <v>833.085084136179</v>
+        <v>145.3311144950625</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5036,31 +5036,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5069,22 +5069,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998291</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5258,28 +5258,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,16 +5288,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>542.9134462654469</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1140.291933891999</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>513.8536007400717</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5504,58 +5504,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1577.52840832642</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876693</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C19" t="n">
-        <v>580.8993044876693</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.547769317909</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5981,10 +5981,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,25 +6060,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6124,25 +6124,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6212,10 +6212,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6312,19 +6312,19 @@
         <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>923.0670414349511</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6427,7 +6427,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="29">
@@ -6449,16 +6449,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6598,22 +6598,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>241.729756630365</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D34" t="n">
-        <v>261.8464821474262</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E34" t="n">
-        <v>113.9333885650331</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6911,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6953,7 +6953,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G37" t="n">
         <v>93.81666304797187</v>
@@ -7138,7 +7138,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,46 +7154,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7254,25 +7254,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>1318.793114229131</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>1870.702844468418</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2294.325993963486</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7397,34 +7397,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="44">
@@ -7637,31 +7637,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,22 +7725,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597682</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8070,13 +8070,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360584</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>148.2422363886232</v>
+        <v>316.7274269914635</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>21.63976862165688</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>339.184373405</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>-3.849783241745932e-13</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8927,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>-2.300097184559153e-14</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.449507180950604e-12</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23419,10 +23419,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E13" t="n">
-        <v>46.45968844823057</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,10 +23431,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>41.54258064659051</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>99.76050189075474</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>123.7828069546813</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>88.18825743108313</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194223</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>143.6212754172151</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>177.5728945814938</v>
       </c>
     </row>
     <row r="29">
@@ -24838,13 +24838,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,10 +24853,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25081,16 +25081,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>132.6809716109911</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,13 +25309,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>138.8202214113363</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,7 +25324,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>41.54258064659093</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>146.8157004124958</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,10 +25834,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>24.81829093850953</v>
       </c>
     </row>
     <row r="44">
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>16.31315520054551</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>771668.8214256044</v>
+        <v>771668.8214256045</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>771668.8214256044</v>
+        <v>771668.8214256045</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>771668.8214256045</v>
+        <v>771668.8214256044</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>771668.8214256044</v>
+        <v>771668.8214256045</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>771668.8214256044</v>
+        <v>771668.8214256045</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>771668.8214256044</v>
+        <v>771668.8214256045</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>771668.8214256044</v>
+        <v>771668.8214256045</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>771668.8214256044</v>
+        <v>771668.8214256045</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.415891427</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914264</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914267</v>
+        <v>656833.4158914263</v>
       </c>
       <c r="E2" t="n">
         <v>645717.279752005</v>
       </c>
       <c r="F2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.279752005</v>
       </c>
       <c r="G2" t="n">
-        <v>645717.2797520054</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="H2" t="n">
-        <v>645717.2797520052</v>
+        <v>645717.279752005</v>
       </c>
       <c r="I2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="J2" t="n">
         <v>645717.279752005</v>
       </c>
       <c r="K2" t="n">
-        <v>645717.2797520045</v>
+        <v>645717.2797520048</v>
       </c>
       <c r="L2" t="n">
-        <v>645717.2797520047</v>
+        <v>645717.279752005</v>
       </c>
       <c r="M2" t="n">
-        <v>645717.2797520049</v>
+        <v>645717.279752005</v>
       </c>
       <c r="N2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.2797520047</v>
+        <v>645717.2797520051</v>
       </c>
       <c r="P2" t="n">
-        <v>645717.2797520048</v>
+        <v>645717.2797520052</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481116</v>
+        <v>184756.2785481117</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808065</v>
+        <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26399,7 +26399,7 @@
         <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012794</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682671</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682736</v>
+        <v>5677.536566682771</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682719</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682707</v>
+        <v>5677.536566682765</v>
       </c>
       <c r="I4" t="n">
+        <v>5677.536566682751</v>
+      </c>
+      <c r="J4" t="n">
         <v>5677.536566682752</v>
       </c>
-      <c r="J4" t="n">
-        <v>5677.536566682751</v>
-      </c>
       <c r="K4" t="n">
+        <v>5677.536566682747</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5677.536566682754</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5677.536566682749</v>
+      </c>
+      <c r="O4" t="n">
+        <v>5677.536566682718</v>
+      </c>
+      <c r="P4" t="n">
         <v>5677.536566682745</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5677.536566682757</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="O4" t="n">
-        <v>5677.536566682757</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5677.536566682744</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-225915.9568495603</v>
+        <v>-225915.9568495605</v>
       </c>
       <c r="C6" t="n">
-        <v>364051.9223649836</v>
+        <v>364051.9223649837</v>
       </c>
       <c r="D6" t="n">
-        <v>208248.116271189</v>
+        <v>208248.1162711884</v>
       </c>
       <c r="E6" t="n">
-        <v>-232135.4780193913</v>
+        <v>-232170.215944827</v>
       </c>
       <c r="F6" t="n">
-        <v>538917.2133614153</v>
+        <v>538882.4754359795</v>
       </c>
       <c r="G6" t="n">
-        <v>538917.2133614155</v>
+        <v>538882.4754359793</v>
       </c>
       <c r="H6" t="n">
-        <v>538917.2133614153</v>
+        <v>538882.4754359795</v>
       </c>
       <c r="I6" t="n">
-        <v>538917.2133614153</v>
+        <v>538882.4754359793</v>
       </c>
       <c r="J6" t="n">
-        <v>362493.9941688222</v>
+        <v>362459.2562433864</v>
       </c>
       <c r="K6" t="n">
-        <v>538917.2133614147</v>
+        <v>538882.4754359793</v>
       </c>
       <c r="L6" t="n">
-        <v>538917.2133614148</v>
+        <v>538882.4754359795</v>
       </c>
       <c r="M6" t="n">
-        <v>414708.7026533565</v>
+        <v>414673.9647279209</v>
       </c>
       <c r="N6" t="n">
-        <v>538917.213361415</v>
+        <v>538882.4754359795</v>
       </c>
       <c r="O6" t="n">
-        <v>538917.2133614148</v>
+        <v>538882.4754359797</v>
       </c>
       <c r="P6" t="n">
-        <v>538917.213361415</v>
+        <v>538882.4754359798</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26802,13 +26802,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.117460312884351e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209784</v>
+        <v>215.7324361209785</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036089</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.117460312884351e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27382,13 +27382,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>7.983128723806658</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>112.9202716085207</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27436,10 +27436,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,7 +27555,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27582,19 +27582,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>73.28850317841506</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>201.7061255516593</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,19 +27622,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>42.48905394114831</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>22.10217360722464</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060686</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,7 +27828,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>13.21032716693568</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>198.1806996095865</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>143.5707565686112</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>89.35772883398623</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>34.50390721197959</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
@@ -28059,16 +28059,16 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,31 +31829,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31862,16 +31862,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>592.1874941409601</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>195.7502366106279</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>652.0478969157699</v>
+        <v>491.1355220041058</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>395.1848490935921</v>
       </c>
       <c r="N21" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33032,22 +33032,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>519.7862086120942</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,10 +33257,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>567.7870775946151</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,7 +33497,7 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33658,7 +33658,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33974,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>316.0872899694776</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>364.3208035245826</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>342.4905264542646</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,34 +34436,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839187</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181306</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
-        <v>260.0950901760237</v>
+        <v>428.580280778864</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>89.93049555434075</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>500.3079215552632</v>
       </c>
       <c r="P9" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,16 +35492,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35510,7 +35510,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>453.6331143610859</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>509.9138629937516</v>
+        <v>349.0014880820875</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="N21" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,22 +36680,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>388.4444965287609</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36850,7 +36850,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>425.1908331501707</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37154,22 +37154,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37391,22 +37391,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>173.4910455250332</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>224.3390294385611</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>211.1488143709312</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L45" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
